--- a/data_excel/785.xlsx
+++ b/data_excel/785.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,9 +87,6 @@
     <t>走了</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -97,6 +94,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,16 +147,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +472,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="G3 C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -533,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -596,20 +597,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
